--- a/SMS-Product Backlog.xlsx
+++ b/SMS-Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinesh.s\Desktop\POC-sms-documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039F6EE6-A7C5-41EB-9D7B-6A6EDF8083DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6200A89-622E-4E5A-8ED3-F9896A71BD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
   <si>
     <t>#</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
     <t>Sprint</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>backend code for Reset Password and New Password pages</t>
   </si>
   <si>
-    <t>Junit and functional testing</t>
-  </si>
-  <si>
     <t>REQ2 - Employee Dashboard</t>
   </si>
   <si>
@@ -251,6 +245,9 @@
   </si>
   <si>
     <t>In-Progress</t>
+  </si>
+  <si>
+    <t>seat booking layout</t>
   </si>
 </sst>
 </file>
@@ -554,10 +551,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>78</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -600,7 +597,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>78</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1291,10 +1288,10 @@
   <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1314,7 +1311,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1323,7 +1320,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -1355,7 +1352,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="6" t="s">
@@ -1390,7 +1387,9 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="2"/>
     </row>
@@ -1404,11 +1403,10 @@
       <c r="G5" s="2"/>
       <c r="H5" s="5">
         <f>SUM(H6:H16)</f>
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="I5" s="5">
-        <f>SUM(I6:I16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="5">
         <f>SUM(J6:J16)</f>
@@ -1427,7 +1425,9 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
@@ -1439,14 +1439,16 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
@@ -1455,21 +1457,23 @@
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H8" s="3">
-        <v>13</v>
-      </c>
-      <c r="I8" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
@@ -1478,21 +1482,23 @@
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H9" s="3">
-        <v>13</v>
-      </c>
-      <c r="I9" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
@@ -1501,21 +1507,23 @@
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H10" s="3">
-        <v>13</v>
-      </c>
-      <c r="I10" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
@@ -1524,21 +1532,23 @@
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H11" s="3">
-        <v>13</v>
-      </c>
-      <c r="I11" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
@@ -1547,17 +1557,21 @@
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
@@ -1566,21 +1580,23 @@
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H13" s="3">
-        <v>13</v>
-      </c>
-      <c r="I13" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
@@ -1589,17 +1605,21 @@
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
@@ -1608,21 +1628,23 @@
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H15" s="3">
-        <v>13</v>
-      </c>
-      <c r="I15" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
@@ -1635,11 +1657,13 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -1647,175 +1671,261 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="3"/>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H19" s="3">
+        <v>7</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H25" s="3">
+        <v>5</v>
+      </c>
+      <c r="I25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H28" s="3">
+        <v>2</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H29" s="3">
+        <v>5</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H30" s="3">
+        <v>8</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="3"/>
+      <c r="I31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -1823,309 +1933,431 @@
         <v>13</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="3"/>
+      <c r="I32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H33" s="3">
+        <v>2</v>
+      </c>
+      <c r="I33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H34" s="3">
+        <v>2</v>
+      </c>
+      <c r="I34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="H35" s="3">
+        <v>3</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H37" s="3">
+        <v>2</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H38" s="3">
+        <v>2</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H40" s="3">
+        <v>7</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" s="3"/>
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" s="3"/>
+      <c r="I43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3</v>
+      </c>
+      <c r="I44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H45" s="3">
+        <v>6</v>
+      </c>
+      <c r="I45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H46" s="3">
+        <v>2</v>
+      </c>
+      <c r="I46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="H47" s="3">
+        <v>6</v>
+      </c>
+      <c r="I47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3</v>
+      </c>
+      <c r="I48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H49" s="3">
+        <v>2</v>
+      </c>
+      <c r="I49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H50" s="3">
+        <v>2</v>
+      </c>
+      <c r="I50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H51" s="3">
+        <v>4</v>
+      </c>
+      <c r="I51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H52" s="3">
+        <v>3</v>
+      </c>
+      <c r="I52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H53" s="3">
+        <v>8</v>
+      </c>
+      <c r="I53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="H54" s="3">
+        <v>3</v>
+      </c>
+      <c r="I54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C55" s="4"/>
-      <c r="D55" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
     </row>
@@ -2220,7 +2452,7 @@
       </c>
       <c r="C3">
         <f>'Product Backlog'!H5</f>
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2262,10 +2494,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2273,10 +2505,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/SMS-Product Backlog.xlsx
+++ b/SMS-Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinesh.s\Desktop\POC-sms-documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6200A89-622E-4E5A-8ED3-F9896A71BD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8637BC5F-185C-4E21-BEBF-71DCC690026F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -1288,10 +1288,10 @@
   <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2329,9 +2329,7 @@
       <c r="E55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="5">
-        <v>1</v>
-      </c>
+      <c r="I55" s="5"/>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C56" s="4"/>
